--- a/data/单词列表.xlsx
+++ b/data/单词列表.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Vocabulary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +426,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -435,6 +440,31 @@
           <t>单词</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>音标</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>释义</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>例句</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -442,349 +472,139 @@
           <t>apple</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>/ˈæpl/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>n. 苹果；苹果树</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>An apple a day keeps the doctor away.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>水果, 基础词汇</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>banana</t>
-        </is>
-      </c>
+          <t>brave</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>/breɪv/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>adj. 勇敢的；无畏的</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The brave student volunteered to lead the team.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>品格, 励志</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cat</t>
-        </is>
-      </c>
+          <t>lantern</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>/ˈlæntərn/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>n. 灯笼；提灯</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>We made a paper lantern for the Mid-Autumn Festival.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>节日, 手工制作</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dog</t>
-        </is>
-      </c>
+          <t>ocean</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>/ˈoʊʃn/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>n. 海洋；大海</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Whales live in the deep ocean.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>自然, 动物</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>fish</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>grape</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>house</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ice</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>juice</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>king</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>lion</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>monkey</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>nurse</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>orange</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>pig</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>queen</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>rabbit</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>sun</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>tiger</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>umbrella</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>violin</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>box</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>zebra</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>chair</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>desk</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>egg</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>flower</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>garden</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>hat</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>island</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>jacket</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>kite</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>lamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>moon</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>nest</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>ocean</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>pencil</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>quilt</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>star</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>tree</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>uniform</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>vase</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>window</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>fox</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>zoo</t>
-        </is>
-      </c>
+          <t>puzzle</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>/ˈpʌzl/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>n. 谜题；拼图游戏</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>This English word puzzle is so much fun!</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>游戏, 课堂活动</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
